--- a/ExampleAllAutomation/src/test/java/com/TestDate/EcxelData.xlsx
+++ b/ExampleAllAutomation/src/test/java/com/TestDate/EcxelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18450" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="ResTestDate" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Mohammed Irfan</t>
   </si>
@@ -27,35 +28,68 @@
     <t>Mohammed Hamdan</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>MohammedHammad</t>
   </si>
   <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>stev345</t>
-  </si>
-  <si>
-    <t>steve</t>
-  </si>
-  <si>
-    <t>kile</t>
-  </si>
-  <si>
-    <t>kile123</t>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>B Farheen</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Nausheen plaza</t>
+  </si>
+  <si>
+    <t>F/102,kausa,Mumbra</t>
+  </si>
+  <si>
+    <t>400612</t>
+  </si>
+  <si>
+    <t>mdirfan201@gmail.com</t>
+  </si>
+  <si>
+    <t>farheen201@gmail.com</t>
+  </si>
+  <si>
+    <t>hamdam201@gmail.com</t>
+  </si>
+  <si>
+    <t>hammad201@gmail.com</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +104,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,14 +136,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,69 +443,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
